--- a/Files/Results/Divide_conquer/Test results.xlsx
+++ b/Files/Results/Divide_conquer/Test results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -456,7 +456,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -498,16 +498,16 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -521,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3">
         <v>2</v>
@@ -529,7 +529,7 @@
       <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>2</v>
       </c>
       <c r="H5" t="s">
@@ -544,16 +544,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="3">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -566,18 +563,7 @@
       <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1">
-        <v>13</v>
-      </c>
-      <c r="F7">
-        <v>15</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="H7" t="s">
         <v>4</v>
       </c>
@@ -589,18 +575,7 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>34</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="H8" t="s">
         <v>4</v>
       </c>
@@ -612,15 +587,7 @@
       <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="H9" t="s">
         <v>4</v>
       </c>
@@ -633,16 +600,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="3">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -656,16 +620,16 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E11" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -679,16 +643,16 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E12" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -701,18 +665,7 @@
       <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1">
-        <v>35</v>
-      </c>
-      <c r="F13">
-        <v>35</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="H13" t="s">
         <v>4</v>
       </c>
@@ -721,28 +674,69 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1">
+        <v>26</v>
+      </c>
+      <c r="F14">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1">
+        <v>4</v>
+      </c>
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5">
